--- a/Work Tracking/Grades.xlsx
+++ b/Work Tracking/Grades.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Norco College\CIS 11 - Computer Architcture\CIS---11-Assembly-Programming\Work Tracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Norco College\CIS 11 - Assembly Programming\CIS---11-Assembly-Programming\Work Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -223,12 +223,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -244,9 +250,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,7 +572,7 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -632,20 +639,20 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
         <v>36</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>19</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>24</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="2">
         <f>SUM(C2:S2)</f>
         <v>79</v>
       </c>
@@ -657,13 +664,22 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
+      <c r="D3">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>24</v>
+      </c>
       <c r="T3">
         <f t="shared" ref="T3:T43" si="0">SUM(C3:S3)</f>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="U3">
         <f>T3/T$2*100</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
@@ -673,13 +689,22 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
+      <c r="D4">
+        <v>41</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>24</v>
+      </c>
       <c r="T4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="U4" s="1">
         <f>T4/T$2</f>
-        <v>0</v>
+        <v>1.0632911392405062</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
@@ -816,13 +841,16 @@
       <c r="E12">
         <v>19</v>
       </c>
+      <c r="F12">
+        <v>24</v>
+      </c>
       <c r="T12">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="U12" s="1">
         <f t="shared" si="1"/>
-        <v>0.69620253164556967</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
@@ -864,13 +892,16 @@
       <c r="B15" t="s">
         <v>12</v>
       </c>
+      <c r="D15">
+        <v>35</v>
+      </c>
       <c r="T15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="U15" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.44303797468354428</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
@@ -1091,13 +1122,19 @@
       <c r="B29" t="s">
         <v>26</v>
       </c>
+      <c r="D29">
+        <v>36</v>
+      </c>
+      <c r="E29">
+        <v>17</v>
+      </c>
       <c r="T29">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="U29" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.67088607594936711</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.35">

--- a/Work Tracking/Grades.xlsx
+++ b/Work Tracking/Grades.xlsx
@@ -572,7 +572,7 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -959,13 +959,19 @@
       <c r="B19" t="s">
         <v>16</v>
       </c>
+      <c r="D19">
+        <v>34</v>
+      </c>
+      <c r="E19">
+        <v>19</v>
+      </c>
       <c r="T19">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.67088607594936711</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
@@ -976,15 +982,21 @@
         <v>17</v>
       </c>
       <c r="D20">
-        <v>36</v>
+        <v>41</v>
+      </c>
+      <c r="E20">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <v>24</v>
       </c>
       <c r="T20">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="U20" s="1">
         <f t="shared" si="1"/>
-        <v>0.45569620253164556</v>
+        <v>1.0632911392405062</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
@@ -1042,13 +1054,22 @@
       <c r="B24" t="s">
         <v>21</v>
       </c>
+      <c r="D24">
+        <v>36</v>
+      </c>
+      <c r="E24">
+        <v>19</v>
+      </c>
+      <c r="F24">
+        <v>24</v>
+      </c>
       <c r="T24">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.35">
@@ -1128,13 +1149,16 @@
       <c r="E29">
         <v>17</v>
       </c>
+      <c r="F29">
+        <v>24</v>
+      </c>
       <c r="T29">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>77</v>
       </c>
       <c r="U29" s="1">
         <f t="shared" si="1"/>
-        <v>0.67088607594936711</v>
+        <v>0.97468354430379744</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.35">
@@ -1300,13 +1324,16 @@
       <c r="B39" t="s">
         <v>36</v>
       </c>
+      <c r="D39">
+        <v>41</v>
+      </c>
       <c r="T39">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="U39" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.51898734177215189</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.35">

--- a/Work Tracking/Grades.xlsx
+++ b/Work Tracking/Grades.xlsx
@@ -572,7 +572,7 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="V14" sqref="V14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -652,9 +652,12 @@
       <c r="F2" s="2">
         <v>24</v>
       </c>
+      <c r="G2" s="2">
+        <v>23</v>
+      </c>
       <c r="T2" s="2">
         <f>SUM(C2:S2)</f>
-        <v>79</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
@@ -677,9 +680,9 @@
         <f t="shared" ref="T3:T43" si="0">SUM(C3:S3)</f>
         <v>79</v>
       </c>
-      <c r="U3">
-        <f>T3/T$2*100</f>
-        <v>100</v>
+      <c r="U3" s="1">
+        <f>T3/T$2</f>
+        <v>0.77450980392156865</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
@@ -704,7 +707,7 @@
       </c>
       <c r="U4" s="1">
         <f>T4/T$2</f>
-        <v>1.0632911392405062</v>
+        <v>0.82352941176470584</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
@@ -793,7 +796,7 @@
       </c>
       <c r="U9" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.77450980392156865</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
@@ -850,7 +853,7 @@
       </c>
       <c r="U12" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.77450980392156865</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
@@ -901,7 +904,7 @@
       </c>
       <c r="U15" s="1">
         <f t="shared" si="1"/>
-        <v>0.44303797468354428</v>
+        <v>0.34313725490196079</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
@@ -971,7 +974,7 @@
       </c>
       <c r="U19" s="1">
         <f t="shared" si="1"/>
-        <v>0.67088607594936711</v>
+        <v>0.51960784313725494</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
@@ -990,13 +993,16 @@
       <c r="F20">
         <v>24</v>
       </c>
+      <c r="G20">
+        <v>22</v>
+      </c>
       <c r="T20">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="U20" s="1">
         <f t="shared" si="1"/>
-        <v>1.0632911392405062</v>
+        <v>1.0392156862745099</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
@@ -1063,9 +1069,12 @@
       <c r="F24">
         <v>24</v>
       </c>
+      <c r="G24">
+        <v>23</v>
+      </c>
       <c r="T24">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" si="1"/>
@@ -1152,13 +1161,16 @@
       <c r="F29">
         <v>24</v>
       </c>
+      <c r="G29">
+        <v>23</v>
+      </c>
       <c r="T29">
         <f t="shared" si="0"/>
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="U29" s="1">
         <f t="shared" si="1"/>
-        <v>0.97468354430379744</v>
+        <v>0.98039215686274506</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.35">
@@ -1180,7 +1192,7 @@
       </c>
       <c r="U30" s="1">
         <f t="shared" si="1"/>
-        <v>0.74683544303797467</v>
+        <v>0.57843137254901966</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
@@ -1298,7 +1310,7 @@
       </c>
       <c r="U37" s="1">
         <f t="shared" si="1"/>
-        <v>0.759493670886076</v>
+        <v>0.58823529411764708</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.35">
@@ -1333,7 +1345,7 @@
       </c>
       <c r="U39" s="1">
         <f t="shared" si="1"/>
-        <v>0.51898734177215189</v>
+        <v>0.40196078431372551</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.35">

--- a/Work Tracking/Grades.xlsx
+++ b/Work Tracking/Grades.xlsx
@@ -572,7 +572,7 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -676,13 +676,16 @@
       <c r="F3">
         <v>24</v>
       </c>
+      <c r="G3">
+        <v>23</v>
+      </c>
       <c r="T3">
         <f t="shared" ref="T3:T43" si="0">SUM(C3:S3)</f>
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="U3" s="1">
         <f>T3/T$2</f>
-        <v>0.77450980392156865</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
@@ -701,13 +704,16 @@
       <c r="F4">
         <v>24</v>
       </c>
+      <c r="G4">
+        <v>23</v>
+      </c>
       <c r="T4">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="U4" s="1">
         <f>T4/T$2</f>
-        <v>0.82352941176470584</v>
+        <v>1.0490196078431373</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
@@ -717,13 +723,19 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
+      <c r="F5">
+        <v>24</v>
+      </c>
+      <c r="G5">
+        <v>23</v>
+      </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" ref="U5:U43" si="1">T5/T$2</f>
-        <v>0</v>
+        <v>0.46078431372549017</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
@@ -733,13 +745,19 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
+      <c r="D6">
+        <v>41</v>
+      </c>
+      <c r="E6">
+        <v>19</v>
+      </c>
       <c r="T6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.58823529411764708</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
@@ -790,13 +808,16 @@
       <c r="F9">
         <v>24</v>
       </c>
+      <c r="G9">
+        <v>23</v>
+      </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="U9" s="1">
         <f t="shared" si="1"/>
-        <v>0.77450980392156865</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
@@ -806,13 +827,25 @@
       <c r="B10" t="s">
         <v>7</v>
       </c>
+      <c r="D10">
+        <v>36</v>
+      </c>
+      <c r="E10">
+        <v>18</v>
+      </c>
+      <c r="F10">
+        <v>19</v>
+      </c>
+      <c r="G10">
+        <v>13</v>
+      </c>
       <c r="T10">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="U10" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.84313725490196079</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
@@ -863,13 +896,16 @@
       <c r="B13" t="s">
         <v>10</v>
       </c>
+      <c r="D13">
+        <v>41</v>
+      </c>
       <c r="T13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="U13" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.40196078431372551</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
@@ -968,13 +1004,19 @@
       <c r="E19">
         <v>19</v>
       </c>
+      <c r="F19">
+        <v>23</v>
+      </c>
+      <c r="G19">
+        <v>23</v>
+      </c>
       <c r="T19">
         <f t="shared" si="0"/>
-        <v>53</v>
+        <v>99</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" si="1"/>
-        <v>0.51960784313725494</v>
+        <v>0.97058823529411764</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
@@ -1044,13 +1086,19 @@
       <c r="B23" t="s">
         <v>20</v>
       </c>
+      <c r="D23">
+        <v>36</v>
+      </c>
+      <c r="E23">
+        <v>19</v>
+      </c>
       <c r="T23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="U23" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.53921568627450978</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.35">
@@ -1070,15 +1118,15 @@
         <v>24</v>
       </c>
       <c r="G24">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="T24">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.9509803921568627</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.35">
@@ -1088,13 +1136,22 @@
       <c r="B25" t="s">
         <v>22</v>
       </c>
+      <c r="E25">
+        <v>19</v>
+      </c>
+      <c r="F25">
+        <v>24</v>
+      </c>
+      <c r="G25">
+        <v>23</v>
+      </c>
       <c r="T25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="U25" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.6470588235294118</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.35">
@@ -1339,13 +1396,22 @@
       <c r="D39">
         <v>41</v>
       </c>
+      <c r="E39">
+        <v>19</v>
+      </c>
+      <c r="F39">
+        <v>23</v>
+      </c>
+      <c r="G39">
+        <v>23</v>
+      </c>
       <c r="T39">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="U39" s="1">
         <f t="shared" si="1"/>
-        <v>0.40196078431372551</v>
+        <v>1.0392156862745099</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.35">

--- a/Work Tracking/Grades.xlsx
+++ b/Work Tracking/Grades.xlsx
@@ -572,15 +572,18 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.453125" customWidth="1"/>
-    <col min="4" max="7" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="1.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="13" max="19" width="13" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.35">
@@ -653,11 +656,17 @@
         <v>24</v>
       </c>
       <c r="G2" s="2">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="H2" s="2">
+        <v>10</v>
+      </c>
+      <c r="I2" s="2">
+        <v>20</v>
       </c>
       <c r="T2" s="2">
         <f>SUM(C2:S2)</f>
-        <v>102</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
@@ -677,7 +686,10 @@
         <v>24</v>
       </c>
       <c r="G3">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="H3">
+        <v>10</v>
       </c>
       <c r="T3">
         <f t="shared" ref="T3:T43" si="0">SUM(C3:S3)</f>
@@ -685,7 +697,7 @@
       </c>
       <c r="U3" s="1">
         <f>T3/T$2</f>
-        <v>1</v>
+        <v>0.83606557377049184</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
@@ -705,7 +717,10 @@
         <v>24</v>
       </c>
       <c r="G4">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
       </c>
       <c r="T4">
         <f t="shared" si="0"/>
@@ -713,7 +728,7 @@
       </c>
       <c r="U4" s="1">
         <f>T4/T$2</f>
-        <v>1.0490196078431373</v>
+        <v>0.87704918032786883</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
@@ -727,15 +742,21 @@
         <v>24</v>
       </c>
       <c r="G5">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>20</v>
       </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" ref="U5:U43" si="1">T5/T$2</f>
-        <v>0.46078431372549017</v>
+        <v>0.54918032786885251</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
@@ -757,7 +778,7 @@
       </c>
       <c r="U6" s="1">
         <f t="shared" si="1"/>
-        <v>0.58823529411764708</v>
+        <v>0.49180327868852458</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
@@ -809,7 +830,10 @@
         <v>24</v>
       </c>
       <c r="G9">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
       </c>
       <c r="T9">
         <f t="shared" si="0"/>
@@ -817,7 +841,7 @@
       </c>
       <c r="U9" s="1">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0.83606557377049184</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
@@ -845,7 +869,7 @@
       </c>
       <c r="U10" s="1">
         <f t="shared" si="1"/>
-        <v>0.84313725490196079</v>
+        <v>0.70491803278688525</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
@@ -886,7 +910,7 @@
       </c>
       <c r="U12" s="1">
         <f t="shared" si="1"/>
-        <v>0.77450980392156865</v>
+        <v>0.64754098360655743</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
@@ -905,7 +929,7 @@
       </c>
       <c r="U13" s="1">
         <f t="shared" si="1"/>
-        <v>0.40196078431372551</v>
+        <v>0.33606557377049179</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
@@ -940,7 +964,7 @@
       </c>
       <c r="U15" s="1">
         <f t="shared" si="1"/>
-        <v>0.34313725490196079</v>
+        <v>0.28688524590163933</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
@@ -1008,7 +1032,10 @@
         <v>23</v>
       </c>
       <c r="G19">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
       </c>
       <c r="T19">
         <f t="shared" si="0"/>
@@ -1016,7 +1043,7 @@
       </c>
       <c r="U19" s="1">
         <f t="shared" si="1"/>
-        <v>0.97058823529411764</v>
+        <v>0.81147540983606559</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
@@ -1036,7 +1063,10 @@
         <v>24</v>
       </c>
       <c r="G20">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
       </c>
       <c r="T20">
         <f t="shared" si="0"/>
@@ -1044,7 +1074,7 @@
       </c>
       <c r="U20" s="1">
         <f t="shared" si="1"/>
-        <v>1.0392156862745099</v>
+        <v>0.86885245901639341</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
@@ -1098,7 +1128,7 @@
       </c>
       <c r="U23" s="1">
         <f t="shared" si="1"/>
-        <v>0.53921568627450978</v>
+        <v>0.45081967213114754</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.35">
@@ -1118,15 +1148,21 @@
         <v>24</v>
       </c>
       <c r="G24">
-        <v>18</v>
+        <v>13</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
+        <v>10</v>
       </c>
       <c r="T24">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" si="1"/>
-        <v>0.9509803921568627</v>
+        <v>0.91803278688524592</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.35">
@@ -1143,7 +1179,10 @@
         <v>24</v>
       </c>
       <c r="G25">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
       </c>
       <c r="T25">
         <f t="shared" si="0"/>
@@ -1151,7 +1190,7 @@
       </c>
       <c r="U25" s="1">
         <f t="shared" si="1"/>
-        <v>0.6470588235294118</v>
+        <v>0.54098360655737709</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.35">
@@ -1219,7 +1258,10 @@
         <v>24</v>
       </c>
       <c r="G29">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
       </c>
       <c r="T29">
         <f t="shared" si="0"/>
@@ -1227,7 +1269,7 @@
       </c>
       <c r="U29" s="1">
         <f t="shared" si="1"/>
-        <v>0.98039215686274506</v>
+        <v>0.81967213114754101</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.35">
@@ -1249,7 +1291,7 @@
       </c>
       <c r="U30" s="1">
         <f t="shared" si="1"/>
-        <v>0.57843137254901966</v>
+        <v>0.48360655737704916</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
@@ -1367,7 +1409,7 @@
       </c>
       <c r="U37" s="1">
         <f t="shared" si="1"/>
-        <v>0.58823529411764708</v>
+        <v>0.49180327868852458</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.35">
@@ -1403,7 +1445,10 @@
         <v>23</v>
       </c>
       <c r="G39">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="H39">
+        <v>10</v>
       </c>
       <c r="T39">
         <f t="shared" si="0"/>
@@ -1411,7 +1456,7 @@
       </c>
       <c r="U39" s="1">
         <f t="shared" si="1"/>
-        <v>1.0392156862745099</v>
+        <v>0.86885245901639341</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.35">

--- a/Work Tracking/Grades.xlsx
+++ b/Work Tracking/Grades.xlsx
@@ -572,7 +572,7 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -664,9 +664,12 @@
       <c r="I2" s="2">
         <v>20</v>
       </c>
+      <c r="J2" s="2">
+        <v>20</v>
+      </c>
       <c r="T2" s="2">
         <f>SUM(C2:S2)</f>
-        <v>122</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
@@ -697,7 +700,7 @@
       </c>
       <c r="U3" s="1">
         <f>T3/T$2</f>
-        <v>0.83606557377049184</v>
+        <v>0.71830985915492962</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
@@ -728,7 +731,7 @@
       </c>
       <c r="U4" s="1">
         <f>T4/T$2</f>
-        <v>0.87704918032786883</v>
+        <v>0.75352112676056338</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
@@ -756,7 +759,7 @@
       </c>
       <c r="U5" s="1">
         <f t="shared" ref="U5:U43" si="1">T5/T$2</f>
-        <v>0.54918032786885251</v>
+        <v>0.47183098591549294</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
@@ -778,7 +781,7 @@
       </c>
       <c r="U6" s="1">
         <f t="shared" si="1"/>
-        <v>0.49180327868852458</v>
+        <v>0.42253521126760563</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
@@ -788,13 +791,34 @@
       <c r="B7" t="s">
         <v>4</v>
       </c>
+      <c r="D7">
+        <v>41</v>
+      </c>
+      <c r="E7">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>24</v>
+      </c>
+      <c r="G7">
+        <v>13</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>20</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
+      </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.0352112676056338</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
@@ -835,13 +859,16 @@
       <c r="H9">
         <v>10</v>
       </c>
+      <c r="I9">
+        <v>20</v>
+      </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="U9" s="1">
         <f t="shared" si="1"/>
-        <v>0.83606557377049184</v>
+        <v>0.85915492957746475</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
@@ -869,7 +896,7 @@
       </c>
       <c r="U10" s="1">
         <f t="shared" si="1"/>
-        <v>0.70491803278688525</v>
+        <v>0.60563380281690138</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
@@ -879,13 +906,16 @@
       <c r="B11" t="s">
         <v>8</v>
       </c>
+      <c r="D11">
+        <v>33</v>
+      </c>
       <c r="T11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="U11" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.23239436619718309</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
@@ -910,7 +940,7 @@
       </c>
       <c r="U12" s="1">
         <f t="shared" si="1"/>
-        <v>0.64754098360655743</v>
+        <v>0.55633802816901412</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
@@ -929,7 +959,7 @@
       </c>
       <c r="U13" s="1">
         <f t="shared" si="1"/>
-        <v>0.33606557377049179</v>
+        <v>0.28873239436619719</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
@@ -964,7 +994,7 @@
       </c>
       <c r="U15" s="1">
         <f t="shared" si="1"/>
-        <v>0.28688524590163933</v>
+        <v>0.24647887323943662</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
@@ -1006,13 +1036,28 @@
       <c r="B18" t="s">
         <v>15</v>
       </c>
+      <c r="D18">
+        <v>41</v>
+      </c>
+      <c r="E18">
+        <v>19</v>
+      </c>
+      <c r="F18">
+        <v>24</v>
+      </c>
+      <c r="G18">
+        <v>13</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
       <c r="T18">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="U18" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.75352112676056338</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
@@ -1043,7 +1088,7 @@
       </c>
       <c r="U19" s="1">
         <f t="shared" si="1"/>
-        <v>0.81147540983606559</v>
+        <v>0.69718309859154926</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
@@ -1074,7 +1119,7 @@
       </c>
       <c r="U20" s="1">
         <f t="shared" si="1"/>
-        <v>0.86885245901639341</v>
+        <v>0.74647887323943662</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
@@ -1128,7 +1173,7 @@
       </c>
       <c r="U23" s="1">
         <f t="shared" si="1"/>
-        <v>0.45081967213114754</v>
+        <v>0.38732394366197181</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.35">
@@ -1162,7 +1207,7 @@
       </c>
       <c r="U24" s="1">
         <f t="shared" si="1"/>
-        <v>0.91803278688524592</v>
+        <v>0.78873239436619713</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.35">
@@ -1190,7 +1235,7 @@
       </c>
       <c r="U25" s="1">
         <f t="shared" si="1"/>
-        <v>0.54098360655737709</v>
+        <v>0.46478873239436619</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.35">
@@ -1269,7 +1314,7 @@
       </c>
       <c r="U29" s="1">
         <f t="shared" si="1"/>
-        <v>0.81967213114754101</v>
+        <v>0.70422535211267601</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.35">
@@ -1291,7 +1336,7 @@
       </c>
       <c r="U30" s="1">
         <f t="shared" si="1"/>
-        <v>0.48360655737704916</v>
+        <v>0.41549295774647887</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
@@ -1409,7 +1454,7 @@
       </c>
       <c r="U37" s="1">
         <f t="shared" si="1"/>
-        <v>0.49180327868852458</v>
+        <v>0.42253521126760563</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.35">
@@ -1456,7 +1501,7 @@
       </c>
       <c r="U39" s="1">
         <f t="shared" si="1"/>
-        <v>0.86885245901639341</v>
+        <v>0.74647887323943662</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.35">

--- a/Work Tracking/Grades.xlsx
+++ b/Work Tracking/Grades.xlsx
@@ -572,7 +572,7 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -667,9 +667,12 @@
       <c r="J2" s="2">
         <v>20</v>
       </c>
+      <c r="K2" s="2">
+        <v>4</v>
+      </c>
       <c r="T2" s="2">
         <f>SUM(C2:S2)</f>
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
@@ -700,7 +703,7 @@
       </c>
       <c r="U3" s="1">
         <f>T3/T$2</f>
-        <v>0.71830985915492962</v>
+        <v>0.69863013698630139</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
@@ -725,13 +728,16 @@
       <c r="H4">
         <v>10</v>
       </c>
+      <c r="K4">
+        <v>9</v>
+      </c>
       <c r="T4">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="U4" s="1">
         <f>T4/T$2</f>
-        <v>0.75352112676056338</v>
+        <v>0.79452054794520544</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
@@ -753,13 +759,16 @@
       <c r="I5">
         <v>20</v>
       </c>
+      <c r="K5">
+        <v>9</v>
+      </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" ref="U5:U43" si="1">T5/T$2</f>
-        <v>0.47183098591549294</v>
+        <v>0.52054794520547942</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
@@ -781,7 +790,7 @@
       </c>
       <c r="U6" s="1">
         <f t="shared" si="1"/>
-        <v>0.42253521126760563</v>
+        <v>0.41095890410958902</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
@@ -812,13 +821,16 @@
       <c r="J7">
         <v>20</v>
       </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" si="1"/>
-        <v>1.0352112676056338</v>
+        <v>1.0684931506849316</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
@@ -862,13 +874,19 @@
       <c r="I9">
         <v>20</v>
       </c>
+      <c r="J9">
+        <v>20</v>
+      </c>
+      <c r="K9">
+        <v>9</v>
+      </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="U9" s="1">
         <f t="shared" si="1"/>
-        <v>0.85915492957746475</v>
+        <v>1.0342465753424657</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
@@ -896,7 +914,7 @@
       </c>
       <c r="U10" s="1">
         <f t="shared" si="1"/>
-        <v>0.60563380281690138</v>
+        <v>0.58904109589041098</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.35">
@@ -915,7 +933,7 @@
       </c>
       <c r="U11" s="1">
         <f t="shared" si="1"/>
-        <v>0.23239436619718309</v>
+        <v>0.22602739726027396</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
@@ -934,13 +952,22 @@
       <c r="F12">
         <v>24</v>
       </c>
+      <c r="G12">
+        <v>13</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="J12">
+        <v>20</v>
+      </c>
       <c r="T12">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="U12" s="1">
         <f t="shared" si="1"/>
-        <v>0.55633802816901412</v>
+        <v>0.83561643835616439</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
@@ -959,7 +986,7 @@
       </c>
       <c r="U13" s="1">
         <f t="shared" si="1"/>
-        <v>0.28873239436619719</v>
+        <v>0.28082191780821919</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
@@ -988,13 +1015,16 @@
       <c r="D15">
         <v>35</v>
       </c>
+      <c r="E15">
+        <v>19</v>
+      </c>
       <c r="T15">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="U15" s="1">
         <f t="shared" si="1"/>
-        <v>0.24647887323943662</v>
+        <v>0.36986301369863012</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
@@ -1004,13 +1034,22 @@
       <c r="B16" t="s">
         <v>13</v>
       </c>
+      <c r="D16">
+        <v>35</v>
+      </c>
+      <c r="E16">
+        <v>19</v>
+      </c>
+      <c r="F16">
+        <v>24</v>
+      </c>
       <c r="T16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="U16" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.53424657534246578</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
@@ -1051,13 +1090,16 @@
       <c r="H18">
         <v>10</v>
       </c>
+      <c r="K18">
+        <v>9</v>
+      </c>
       <c r="T18">
         <f t="shared" si="0"/>
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="U18" s="1">
         <f t="shared" si="1"/>
-        <v>0.75352112676056338</v>
+        <v>0.79452054794520544</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
@@ -1088,7 +1130,7 @@
       </c>
       <c r="U19" s="1">
         <f t="shared" si="1"/>
-        <v>0.69718309859154926</v>
+        <v>0.67808219178082196</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
@@ -1119,7 +1161,7 @@
       </c>
       <c r="U20" s="1">
         <f t="shared" si="1"/>
-        <v>0.74647887323943662</v>
+        <v>0.72602739726027399</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
@@ -1167,13 +1209,22 @@
       <c r="E23">
         <v>19</v>
       </c>
+      <c r="F23">
+        <v>24</v>
+      </c>
+      <c r="G23">
+        <v>13</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
       <c r="T23">
         <f t="shared" si="0"/>
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="U23" s="1">
         <f t="shared" si="1"/>
-        <v>0.38732394366197181</v>
+        <v>0.69863013698630139</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.35">
@@ -1199,15 +1250,18 @@
         <v>10</v>
       </c>
       <c r="I24">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="K24">
+        <v>9</v>
       </c>
       <c r="T24">
         <f t="shared" si="0"/>
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" si="1"/>
-        <v>0.78873239436619713</v>
+        <v>0.89726027397260277</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.35">
@@ -1217,6 +1271,9 @@
       <c r="B25" t="s">
         <v>22</v>
       </c>
+      <c r="D25">
+        <v>40</v>
+      </c>
       <c r="E25">
         <v>19</v>
       </c>
@@ -1229,13 +1286,16 @@
       <c r="H25">
         <v>10</v>
       </c>
+      <c r="K25">
+        <v>9</v>
+      </c>
       <c r="T25">
         <f t="shared" si="0"/>
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="U25" s="1">
         <f t="shared" si="1"/>
-        <v>0.46478873239436619</v>
+        <v>0.78767123287671237</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.35">
@@ -1314,7 +1374,7 @@
       </c>
       <c r="U29" s="1">
         <f t="shared" si="1"/>
-        <v>0.70422535211267601</v>
+        <v>0.68493150684931503</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.35">
@@ -1336,7 +1396,7 @@
       </c>
       <c r="U30" s="1">
         <f t="shared" si="1"/>
-        <v>0.41549295774647887</v>
+        <v>0.4041095890410959</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
@@ -1454,7 +1514,7 @@
       </c>
       <c r="U37" s="1">
         <f t="shared" si="1"/>
-        <v>0.42253521126760563</v>
+        <v>0.41095890410958902</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.35">
@@ -1464,13 +1524,22 @@
       <c r="B38" t="s">
         <v>35</v>
       </c>
+      <c r="E38">
+        <v>19</v>
+      </c>
+      <c r="G38">
+        <v>13</v>
+      </c>
+      <c r="H38">
+        <v>10</v>
+      </c>
       <c r="T38">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="U38" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.28767123287671231</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.35">
@@ -1501,7 +1570,7 @@
       </c>
       <c r="U39" s="1">
         <f t="shared" si="1"/>
-        <v>0.74647887323943662</v>
+        <v>0.72602739726027399</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.35">

--- a/Work Tracking/Grades.xlsx
+++ b/Work Tracking/Grades.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17790"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -250,10 +250,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -572,7 +574,7 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -670,9 +672,15 @@
       <c r="K2" s="2">
         <v>4</v>
       </c>
+      <c r="L2" s="2">
+        <v>22</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
       <c r="T2" s="2">
         <f>SUM(C2:S2)</f>
-        <v>146</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
@@ -703,7 +711,7 @@
       </c>
       <c r="U3" s="1">
         <f>T3/T$2</f>
-        <v>0.69863013698630139</v>
+        <v>0.6071428571428571</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
@@ -737,7 +745,7 @@
       </c>
       <c r="U4" s="1">
         <f>T4/T$2</f>
-        <v>0.79452054794520544</v>
+        <v>0.69047619047619047</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
@@ -768,7 +776,7 @@
       </c>
       <c r="U5" s="1">
         <f t="shared" ref="U5:U43" si="1">T5/T$2</f>
-        <v>0.52054794520547942</v>
+        <v>0.45238095238095238</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
@@ -790,7 +798,7 @@
       </c>
       <c r="U6" s="1">
         <f t="shared" si="1"/>
-        <v>0.41095890410958902</v>
+        <v>0.35714285714285715</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
@@ -830,7 +838,7 @@
       </c>
       <c r="U7" s="1">
         <f t="shared" si="1"/>
-        <v>1.0684931506849316</v>
+        <v>0.9285714285714286</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
@@ -886,7 +894,7 @@
       </c>
       <c r="U9" s="1">
         <f t="shared" si="1"/>
-        <v>1.0342465753424657</v>
+        <v>0.89880952380952384</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
@@ -914,26 +922,44 @@
       </c>
       <c r="U10" s="1">
         <f t="shared" si="1"/>
-        <v>0.58904109589041098</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A11">
+        <v>0.51190476190476186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="3">
         <v>2492435</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>33</v>
       </c>
-      <c r="T11">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="U11" s="1">
-        <f t="shared" si="1"/>
-        <v>0.22602739726027396</v>
+      <c r="F11" s="3">
+        <v>22</v>
+      </c>
+      <c r="G11" s="3">
+        <v>13</v>
+      </c>
+      <c r="H11" s="3">
+        <v>10</v>
+      </c>
+      <c r="I11" s="3">
+        <v>20</v>
+      </c>
+      <c r="J11" s="3">
+        <v>20</v>
+      </c>
+      <c r="K11" s="3">
+        <v>4</v>
+      </c>
+      <c r="T11" s="3">
+        <f t="shared" si="0"/>
+        <v>122</v>
+      </c>
+      <c r="U11" s="4">
+        <f t="shared" si="1"/>
+        <v>0.72619047619047616</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
@@ -958,16 +984,22 @@
       <c r="H12">
         <v>10</v>
       </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
       <c r="J12">
         <v>20</v>
       </c>
+      <c r="K12">
+        <v>9</v>
+      </c>
       <c r="T12">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="U12" s="1">
         <f t="shared" si="1"/>
-        <v>0.83561643835616439</v>
+        <v>0.89880952380952384</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
@@ -986,7 +1018,7 @@
       </c>
       <c r="U13" s="1">
         <f t="shared" si="1"/>
-        <v>0.28082191780821919</v>
+        <v>0.24404761904761904</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
@@ -1024,7 +1056,7 @@
       </c>
       <c r="U15" s="1">
         <f t="shared" si="1"/>
-        <v>0.36986301369863012</v>
+        <v>0.32142857142857145</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
@@ -1049,7 +1081,7 @@
       </c>
       <c r="U16" s="1">
         <f t="shared" si="1"/>
-        <v>0.53424657534246578</v>
+        <v>0.4642857142857143</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
@@ -1090,16 +1122,19 @@
       <c r="H18">
         <v>10</v>
       </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
       <c r="K18">
         <v>9</v>
       </c>
       <c r="T18">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="U18" s="1">
         <f t="shared" si="1"/>
-        <v>0.79452054794520544</v>
+        <v>0.80952380952380953</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
@@ -1130,7 +1165,7 @@
       </c>
       <c r="U19" s="1">
         <f t="shared" si="1"/>
-        <v>0.67808219178082196</v>
+        <v>0.5892857142857143</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
@@ -1161,7 +1196,7 @@
       </c>
       <c r="U20" s="1">
         <f t="shared" si="1"/>
-        <v>0.72602739726027399</v>
+        <v>0.63095238095238093</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
@@ -1224,7 +1259,7 @@
       </c>
       <c r="U23" s="1">
         <f t="shared" si="1"/>
-        <v>0.69863013698630139</v>
+        <v>0.6071428571428571</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.35">
@@ -1261,7 +1296,7 @@
       </c>
       <c r="U24" s="1">
         <f t="shared" si="1"/>
-        <v>0.89726027397260277</v>
+        <v>0.77976190476190477</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.35">
@@ -1295,7 +1330,7 @@
       </c>
       <c r="U25" s="1">
         <f t="shared" si="1"/>
-        <v>0.78767123287671237</v>
+        <v>0.68452380952380953</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.35">
@@ -1374,7 +1409,7 @@
       </c>
       <c r="U29" s="1">
         <f t="shared" si="1"/>
-        <v>0.68493150684931503</v>
+        <v>0.59523809523809523</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.35">
@@ -1396,7 +1431,7 @@
       </c>
       <c r="U30" s="1">
         <f t="shared" si="1"/>
-        <v>0.4041095890410959</v>
+        <v>0.35119047619047616</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
@@ -1514,7 +1549,7 @@
       </c>
       <c r="U37" s="1">
         <f t="shared" si="1"/>
-        <v>0.41095890410958902</v>
+        <v>0.35714285714285715</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.35">
@@ -1539,7 +1574,7 @@
       </c>
       <c r="U38" s="1">
         <f t="shared" si="1"/>
-        <v>0.28767123287671231</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.35">
@@ -1564,13 +1599,16 @@
       <c r="H39">
         <v>10</v>
       </c>
+      <c r="I39">
+        <v>20</v>
+      </c>
       <c r="T39">
         <f t="shared" si="0"/>
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="U39" s="1">
         <f t="shared" si="1"/>
-        <v>0.72602739726027399</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.35">
@@ -1628,13 +1666,22 @@
       <c r="B43" t="s">
         <v>40</v>
       </c>
+      <c r="D43">
+        <v>41</v>
+      </c>
+      <c r="E43">
+        <v>18</v>
+      </c>
+      <c r="F43">
+        <v>24</v>
+      </c>
       <c r="T43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="U43" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.49404761904761907</v>
       </c>
     </row>
   </sheetData>

--- a/Work Tracking/Grades.xlsx
+++ b/Work Tracking/Grades.xlsx
@@ -574,7 +574,7 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -678,9 +678,12 @@
       <c r="M2" s="2">
         <v>0</v>
       </c>
+      <c r="N2" s="2">
+        <v>22</v>
+      </c>
       <c r="T2" s="2">
         <f>SUM(C2:S2)</f>
-        <v>168</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
@@ -705,13 +708,22 @@
       <c r="H3">
         <v>10</v>
       </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3">
+        <v>11</v>
+      </c>
       <c r="T3">
         <f t="shared" ref="T3:T43" si="0">SUM(C3:S3)</f>
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="U3" s="1">
         <f>T3/T$2</f>
-        <v>0.6071428571428571</v>
+        <v>0.66842105263157892</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
@@ -745,7 +757,7 @@
       </c>
       <c r="U4" s="1">
         <f>T4/T$2</f>
-        <v>0.69047619047619047</v>
+        <v>0.61052631578947369</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
@@ -776,7 +788,7 @@
       </c>
       <c r="U5" s="1">
         <f t="shared" ref="U5:U43" si="1">T5/T$2</f>
-        <v>0.45238095238095238</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
@@ -798,7 +810,7 @@
       </c>
       <c r="U6" s="1">
         <f t="shared" si="1"/>
-        <v>0.35714285714285715</v>
+        <v>0.31578947368421051</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
@@ -832,13 +844,19 @@
       <c r="K7">
         <v>9</v>
       </c>
+      <c r="L7">
+        <v>22</v>
+      </c>
+      <c r="N7">
+        <v>22</v>
+      </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" si="1"/>
-        <v>0.9285714285714286</v>
+        <v>1.0526315789473684</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
@@ -894,7 +912,7 @@
       </c>
       <c r="U9" s="1">
         <f t="shared" si="1"/>
-        <v>0.89880952380952384</v>
+        <v>0.79473684210526319</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
@@ -922,7 +940,7 @@
       </c>
       <c r="U10" s="1">
         <f t="shared" si="1"/>
-        <v>0.51190476190476186</v>
+        <v>0.45263157894736844</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -953,13 +971,16 @@
       <c r="K11" s="3">
         <v>4</v>
       </c>
+      <c r="N11" s="3">
+        <v>22</v>
+      </c>
       <c r="T11" s="3">
         <f t="shared" si="0"/>
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="U11" s="4">
         <f t="shared" si="1"/>
-        <v>0.72619047619047616</v>
+        <v>0.75789473684210529</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
@@ -999,7 +1020,7 @@
       </c>
       <c r="U12" s="1">
         <f t="shared" si="1"/>
-        <v>0.89880952380952384</v>
+        <v>0.79473684210526319</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
@@ -1012,13 +1033,19 @@
       <c r="D13">
         <v>41</v>
       </c>
+      <c r="E13">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <v>24</v>
+      </c>
       <c r="T13">
         <f t="shared" si="0"/>
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="U13" s="1">
         <f t="shared" si="1"/>
-        <v>0.24404761904761904</v>
+        <v>0.44210526315789472</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
@@ -1050,13 +1077,19 @@
       <c r="E15">
         <v>19</v>
       </c>
+      <c r="I15">
+        <v>20</v>
+      </c>
+      <c r="J15">
+        <v>5</v>
+      </c>
       <c r="T15">
         <f t="shared" si="0"/>
-        <v>54</v>
+        <v>79</v>
       </c>
       <c r="U15" s="1">
         <f t="shared" si="1"/>
-        <v>0.32142857142857145</v>
+        <v>0.41578947368421054</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
@@ -1081,7 +1114,7 @@
       </c>
       <c r="U16" s="1">
         <f t="shared" si="1"/>
-        <v>0.4642857142857143</v>
+        <v>0.41052631578947368</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
@@ -1128,13 +1161,19 @@
       <c r="K18">
         <v>9</v>
       </c>
+      <c r="L18">
+        <v>22</v>
+      </c>
+      <c r="N18">
+        <v>22</v>
+      </c>
       <c r="T18">
         <f t="shared" si="0"/>
-        <v>136</v>
+        <v>180</v>
       </c>
       <c r="U18" s="1">
         <f t="shared" si="1"/>
-        <v>0.80952380952380953</v>
+        <v>0.94736842105263153</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
@@ -1165,7 +1204,7 @@
       </c>
       <c r="U19" s="1">
         <f t="shared" si="1"/>
-        <v>0.5892857142857143</v>
+        <v>0.52105263157894732</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
@@ -1196,7 +1235,7 @@
       </c>
       <c r="U20" s="1">
         <f t="shared" si="1"/>
-        <v>0.63095238095238093</v>
+        <v>0.55789473684210522</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
@@ -1259,7 +1298,7 @@
       </c>
       <c r="U23" s="1">
         <f t="shared" si="1"/>
-        <v>0.6071428571428571</v>
+        <v>0.5368421052631579</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.35">
@@ -1287,16 +1326,22 @@
       <c r="I24">
         <v>20</v>
       </c>
+      <c r="J24">
+        <v>20</v>
+      </c>
       <c r="K24">
         <v>9</v>
       </c>
+      <c r="N24">
+        <v>22</v>
+      </c>
       <c r="T24">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" si="1"/>
-        <v>0.77976190476190477</v>
+        <v>0.91052631578947374</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.35">
@@ -1321,16 +1366,22 @@
       <c r="H25">
         <v>10</v>
       </c>
+      <c r="I25">
+        <v>20</v>
+      </c>
       <c r="K25">
         <v>9</v>
       </c>
+      <c r="N25">
+        <v>22</v>
+      </c>
       <c r="T25">
         <f t="shared" si="0"/>
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="U25" s="1">
         <f t="shared" si="1"/>
-        <v>0.68452380952380953</v>
+        <v>0.82631578947368423</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.35">
@@ -1409,7 +1460,7 @@
       </c>
       <c r="U29" s="1">
         <f t="shared" si="1"/>
-        <v>0.59523809523809523</v>
+        <v>0.52631578947368418</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.35">
@@ -1431,7 +1482,7 @@
       </c>
       <c r="U30" s="1">
         <f t="shared" si="1"/>
-        <v>0.35119047619047616</v>
+        <v>0.31052631578947371</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
@@ -1543,13 +1594,19 @@
       <c r="E37">
         <v>19</v>
       </c>
+      <c r="F37">
+        <v>24</v>
+      </c>
+      <c r="G37">
+        <v>13</v>
+      </c>
       <c r="T37">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="U37" s="1">
         <f t="shared" si="1"/>
-        <v>0.35714285714285715</v>
+        <v>0.51052631578947372</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.35">
@@ -1568,13 +1625,16 @@
       <c r="H38">
         <v>10</v>
       </c>
+      <c r="N38">
+        <v>22</v>
+      </c>
       <c r="T38">
         <f t="shared" si="0"/>
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="U38" s="1">
         <f t="shared" si="1"/>
-        <v>0.25</v>
+        <v>0.33684210526315789</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.35">
@@ -1602,13 +1662,16 @@
       <c r="I39">
         <v>20</v>
       </c>
+      <c r="J39">
+        <v>20</v>
+      </c>
       <c r="T39">
         <f t="shared" si="0"/>
-        <v>126</v>
+        <v>146</v>
       </c>
       <c r="U39" s="1">
         <f t="shared" si="1"/>
-        <v>0.75</v>
+        <v>0.76842105263157889</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.35">
@@ -1681,7 +1744,7 @@
       </c>
       <c r="U43" s="1">
         <f t="shared" si="1"/>
-        <v>0.49404761904761907</v>
+        <v>0.43684210526315792</v>
       </c>
     </row>
   </sheetData>

--- a/Work Tracking/Grades.xlsx
+++ b/Work Tracking/Grades.xlsx
@@ -207,7 +207,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,8 +222,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -236,6 +243,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -246,18 +259,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="60% - Accent3" xfId="2" builtinId="40"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -573,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -583,7 +599,8 @@
     <col min="2" max="2" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="1.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="12" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="19" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="13" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="5.90625" bestFit="1" customWidth="1"/>
   </cols>
@@ -616,7 +633,7 @@
       <c r="L1" t="s">
         <v>50</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="5" t="s">
         <v>51</v>
       </c>
       <c r="N1" t="s">
@@ -675,7 +692,7 @@
       <c r="L2" s="2">
         <v>22</v>
       </c>
-      <c r="M2" s="2">
+      <c r="M2" s="5">
         <v>0</v>
       </c>
       <c r="N2" s="2">
@@ -708,6 +725,9 @@
       <c r="H3">
         <v>10</v>
       </c>
+      <c r="I3">
+        <v>20</v>
+      </c>
       <c r="J3">
         <v>10</v>
       </c>
@@ -719,11 +739,11 @@
       </c>
       <c r="T3">
         <f t="shared" ref="T3:T43" si="0">SUM(C3:S3)</f>
-        <v>127</v>
+        <v>147</v>
       </c>
       <c r="U3" s="1">
         <f>T3/T$2</f>
-        <v>0.66842105263157892</v>
+        <v>0.77368421052631575</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
@@ -779,16 +799,19 @@
       <c r="I5">
         <v>20</v>
       </c>
+      <c r="J5">
+        <v>20</v>
+      </c>
       <c r="K5">
         <v>9</v>
       </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" ref="U5:U43" si="1">T5/T$2</f>
-        <v>0.4</v>
+        <v>0.50526315789473686</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
@@ -906,13 +929,16 @@
       <c r="K9">
         <v>9</v>
       </c>
+      <c r="L9">
+        <v>22</v>
+      </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="U9" s="1">
         <f t="shared" si="1"/>
-        <v>0.79473684210526319</v>
+        <v>0.91052631578947374</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
@@ -934,13 +960,22 @@
       <c r="G10">
         <v>13</v>
       </c>
+      <c r="I10">
+        <v>20</v>
+      </c>
+      <c r="J10">
+        <v>10</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
       <c r="T10">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="U10" s="1">
         <f t="shared" si="1"/>
-        <v>0.45263157894736844</v>
+        <v>0.63157894736842102</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -971,6 +1006,7 @@
       <c r="K11" s="3">
         <v>4</v>
       </c>
+      <c r="M11" s="5"/>
       <c r="N11" s="3">
         <v>22</v>
       </c>
@@ -1014,13 +1050,16 @@
       <c r="K12">
         <v>9</v>
       </c>
+      <c r="L12">
+        <v>22</v>
+      </c>
       <c r="T12">
         <f t="shared" si="0"/>
-        <v>151</v>
+        <v>173</v>
       </c>
       <c r="U12" s="1">
         <f t="shared" si="1"/>
-        <v>0.79473684210526319</v>
+        <v>0.91052631578947374</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
@@ -1077,19 +1116,31 @@
       <c r="E15">
         <v>19</v>
       </c>
+      <c r="F15">
+        <v>24</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
       <c r="I15">
         <v>20</v>
       </c>
       <c r="J15">
         <v>5</v>
       </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
       <c r="T15">
         <f t="shared" si="0"/>
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="U15" s="1">
         <f t="shared" si="1"/>
-        <v>0.41578947368421054</v>
+        <v>0.68421052631578949</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
@@ -1476,13 +1527,28 @@
       <c r="E30">
         <v>19</v>
       </c>
+      <c r="F30">
+        <v>24</v>
+      </c>
+      <c r="G30">
+        <v>13</v>
+      </c>
+      <c r="I30">
+        <v>3</v>
+      </c>
+      <c r="J30">
+        <v>20</v>
+      </c>
+      <c r="K30">
+        <v>4</v>
+      </c>
       <c r="T30">
         <f t="shared" si="0"/>
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="U30" s="1">
         <f t="shared" si="1"/>
-        <v>0.31052631578947371</v>
+        <v>0.64736842105263159</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
@@ -1625,16 +1691,19 @@
       <c r="H38">
         <v>10</v>
       </c>
+      <c r="L38">
+        <v>22</v>
+      </c>
       <c r="N38">
         <v>22</v>
       </c>
       <c r="T38">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="U38" s="1">
         <f t="shared" si="1"/>
-        <v>0.33684210526315789</v>
+        <v>0.45263157894736844</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.35">
@@ -1738,13 +1807,16 @@
       <c r="F43">
         <v>24</v>
       </c>
+      <c r="K43">
+        <v>5</v>
+      </c>
       <c r="T43">
         <f t="shared" si="0"/>
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="U43" s="1">
         <f t="shared" si="1"/>
-        <v>0.43684210526315792</v>
+        <v>0.4631578947368421</v>
       </c>
     </row>
   </sheetData>

--- a/Work Tracking/Grades.xlsx
+++ b/Work Tracking/Grades.xlsx
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -787,6 +787,9 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
+      <c r="D5">
+        <v>41</v>
+      </c>
       <c r="F5">
         <v>24</v>
       </c>
@@ -807,11 +810,11 @@
       </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" ref="U5:U43" si="1">T5/T$2</f>
-        <v>0.50526315789473686</v>
+        <v>0.72105263157894739</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">

--- a/Work Tracking/Grades.xlsx
+++ b/Work Tracking/Grades.xlsx
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -698,9 +698,24 @@
       <c r="N2" s="2">
         <v>22</v>
       </c>
+      <c r="O2" s="2">
+        <v>25</v>
+      </c>
+      <c r="P2" s="2">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
       <c r="T2" s="2">
         <f>SUM(C2:S2)</f>
-        <v>190</v>
+        <v>240</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.35">
@@ -729,7 +744,7 @@
         <v>20</v>
       </c>
       <c r="J3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K3">
         <v>4</v>
@@ -737,13 +752,22 @@
       <c r="L3">
         <v>11</v>
       </c>
+      <c r="N3">
+        <v>22</v>
+      </c>
+      <c r="O3">
+        <v>25</v>
+      </c>
+      <c r="P3">
+        <v>25</v>
+      </c>
       <c r="T3">
         <f t="shared" ref="T3:T43" si="0">SUM(C3:S3)</f>
-        <v>147</v>
+        <v>229</v>
       </c>
       <c r="U3" s="1">
         <f>T3/T$2</f>
-        <v>0.77368421052631575</v>
+        <v>0.95416666666666672</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.35">
@@ -777,7 +801,7 @@
       </c>
       <c r="U4" s="1">
         <f>T4/T$2</f>
-        <v>0.61052631578947369</v>
+        <v>0.48333333333333334</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
@@ -808,13 +832,22 @@
       <c r="K5">
         <v>9</v>
       </c>
+      <c r="L5">
+        <v>14</v>
+      </c>
+      <c r="N5">
+        <v>22</v>
+      </c>
+      <c r="P5">
+        <v>13</v>
+      </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" ref="U5:U43" si="1">T5/T$2</f>
-        <v>0.72105263157894739</v>
+        <v>0.77500000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
@@ -836,7 +869,7 @@
       </c>
       <c r="U6" s="1">
         <f t="shared" si="1"/>
-        <v>0.31578947368421051</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.35">
@@ -882,7 +915,7 @@
       </c>
       <c r="U7" s="1">
         <f t="shared" si="1"/>
-        <v>1.0526315789473684</v>
+        <v>0.83333333333333337</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
@@ -935,13 +968,19 @@
       <c r="L9">
         <v>22</v>
       </c>
+      <c r="O9">
+        <v>25</v>
+      </c>
+      <c r="P9">
+        <v>25</v>
+      </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>173</v>
+        <v>223</v>
       </c>
       <c r="U9" s="1">
         <f t="shared" si="1"/>
-        <v>0.91052631578947374</v>
+        <v>0.9291666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
@@ -972,13 +1011,22 @@
       <c r="K10">
         <v>4</v>
       </c>
+      <c r="L10">
+        <v>20</v>
+      </c>
+      <c r="N10">
+        <v>22</v>
+      </c>
+      <c r="P10">
+        <v>25</v>
+      </c>
       <c r="T10">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>187</v>
       </c>
       <c r="U10" s="1">
         <f t="shared" si="1"/>
-        <v>0.63157894736842102</v>
+        <v>0.77916666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1019,7 +1067,7 @@
       </c>
       <c r="U11" s="4">
         <f t="shared" si="1"/>
-        <v>0.75789473684210529</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
@@ -1056,13 +1104,22 @@
       <c r="L12">
         <v>22</v>
       </c>
+      <c r="N12">
+        <v>22</v>
+      </c>
+      <c r="O12">
+        <v>25</v>
+      </c>
+      <c r="P12">
+        <v>25</v>
+      </c>
       <c r="T12">
         <f t="shared" si="0"/>
-        <v>173</v>
+        <v>245</v>
       </c>
       <c r="U12" s="1">
         <f t="shared" si="1"/>
-        <v>0.91052631578947374</v>
+        <v>1.0208333333333333</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
@@ -1081,13 +1138,28 @@
       <c r="F13">
         <v>24</v>
       </c>
+      <c r="G13">
+        <v>13</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
+        <v>20</v>
+      </c>
+      <c r="J13">
+        <v>20</v>
+      </c>
+      <c r="N13">
+        <v>22</v>
+      </c>
       <c r="T13">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="U13" s="1">
         <f t="shared" si="1"/>
-        <v>0.44210526315789472</v>
+        <v>0.70416666666666672</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
@@ -1097,13 +1169,34 @@
       <c r="B14" t="s">
         <v>11</v>
       </c>
+      <c r="D14">
+        <v>41</v>
+      </c>
+      <c r="E14">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>24</v>
+      </c>
+      <c r="G14">
+        <v>13</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="K14">
+        <v>4</v>
+      </c>
       <c r="T14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="U14" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.54583333333333328</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
@@ -1143,7 +1236,7 @@
       </c>
       <c r="U15" s="1">
         <f t="shared" si="1"/>
-        <v>0.68421052631578949</v>
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
@@ -1168,7 +1261,7 @@
       </c>
       <c r="U16" s="1">
         <f t="shared" si="1"/>
-        <v>0.41052631578947368</v>
+        <v>0.32500000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
@@ -1221,13 +1314,16 @@
       <c r="N18">
         <v>22</v>
       </c>
+      <c r="P18">
+        <v>25</v>
+      </c>
       <c r="T18">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>205</v>
       </c>
       <c r="U18" s="1">
         <f t="shared" si="1"/>
-        <v>0.94736842105263153</v>
+        <v>0.85416666666666663</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
@@ -1238,7 +1334,7 @@
         <v>16</v>
       </c>
       <c r="D19">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="E19">
         <v>19</v>
@@ -1252,13 +1348,22 @@
       <c r="H19">
         <v>10</v>
       </c>
+      <c r="I19">
+        <v>20</v>
+      </c>
+      <c r="K19">
+        <v>4</v>
+      </c>
+      <c r="L19">
+        <v>15</v>
+      </c>
       <c r="T19">
         <f t="shared" si="0"/>
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" si="1"/>
-        <v>0.52105263157894732</v>
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
@@ -1289,7 +1394,7 @@
       </c>
       <c r="U20" s="1">
         <f t="shared" si="1"/>
-        <v>0.55789473684210522</v>
+        <v>0.44166666666666665</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
@@ -1352,7 +1457,7 @@
       </c>
       <c r="U23" s="1">
         <f t="shared" si="1"/>
-        <v>0.5368421052631579</v>
+        <v>0.42499999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.35">
@@ -1395,7 +1500,7 @@
       </c>
       <c r="U24" s="1">
         <f t="shared" si="1"/>
-        <v>0.91052631578947374</v>
+        <v>0.72083333333333333</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.35">
@@ -1429,13 +1534,16 @@
       <c r="N25">
         <v>22</v>
       </c>
+      <c r="O25">
+        <v>25</v>
+      </c>
       <c r="T25">
         <f t="shared" si="0"/>
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="U25" s="1">
         <f t="shared" si="1"/>
-        <v>0.82631578947368423</v>
+        <v>0.7583333333333333</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.35">
@@ -1477,13 +1585,49 @@
       <c r="B28" t="s">
         <v>25</v>
       </c>
+      <c r="D28">
+        <v>41</v>
+      </c>
+      <c r="E28">
+        <v>19</v>
+      </c>
+      <c r="F28">
+        <v>24</v>
+      </c>
+      <c r="G28">
+        <v>13</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28">
+        <v>20</v>
+      </c>
+      <c r="J28">
+        <v>20</v>
+      </c>
+      <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>22</v>
+      </c>
+      <c r="N28">
+        <v>22</v>
+      </c>
+      <c r="O28">
+        <v>25</v>
+      </c>
+      <c r="P28">
+        <v>25</v>
+      </c>
       <c r="T28">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="U28" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.0208333333333333</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.35">
@@ -1508,13 +1652,25 @@
       <c r="H29">
         <v>10</v>
       </c>
+      <c r="I29">
+        <v>20</v>
+      </c>
+      <c r="N29">
+        <v>22</v>
+      </c>
+      <c r="O29">
+        <v>25</v>
+      </c>
+      <c r="P29">
+        <v>25</v>
+      </c>
       <c r="T29">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>192</v>
       </c>
       <c r="U29" s="1">
         <f t="shared" si="1"/>
-        <v>0.52631578947368418</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.35">
@@ -1536,8 +1692,11 @@
       <c r="G30">
         <v>13</v>
       </c>
+      <c r="H30">
+        <v>10</v>
+      </c>
       <c r="I30">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J30">
         <v>20</v>
@@ -1545,13 +1704,25 @@
       <c r="K30">
         <v>4</v>
       </c>
+      <c r="L30">
+        <v>22</v>
+      </c>
+      <c r="N30">
+        <v>22</v>
+      </c>
+      <c r="O30">
+        <v>25</v>
+      </c>
+      <c r="P30">
+        <v>25</v>
+      </c>
       <c r="T30">
         <f t="shared" si="0"/>
-        <v>123</v>
+        <v>244</v>
       </c>
       <c r="U30" s="1">
         <f t="shared" si="1"/>
-        <v>0.64736842105263159</v>
+        <v>1.0166666666666666</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
@@ -1675,7 +1846,7 @@
       </c>
       <c r="U37" s="1">
         <f t="shared" si="1"/>
-        <v>0.51052631578947372</v>
+        <v>0.40416666666666667</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.35">
@@ -1694,6 +1865,9 @@
       <c r="H38">
         <v>10</v>
       </c>
+      <c r="I38">
+        <v>20</v>
+      </c>
       <c r="L38">
         <v>22</v>
       </c>
@@ -1702,11 +1876,11 @@
       </c>
       <c r="T38">
         <f t="shared" si="0"/>
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="U38" s="1">
         <f t="shared" si="1"/>
-        <v>0.45263157894736844</v>
+        <v>0.44166666666666665</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.35">
@@ -1743,7 +1917,7 @@
       </c>
       <c r="U39" s="1">
         <f t="shared" si="1"/>
-        <v>0.76842105263157889</v>
+        <v>0.60833333333333328</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.35">
@@ -1810,16 +1984,40 @@
       <c r="F43">
         <v>24</v>
       </c>
+      <c r="G43">
+        <v>13</v>
+      </c>
+      <c r="H43">
+        <v>10</v>
+      </c>
+      <c r="I43">
+        <v>20</v>
+      </c>
+      <c r="J43">
+        <v>20</v>
+      </c>
       <c r="K43">
         <v>5</v>
       </c>
+      <c r="L43">
+        <v>22</v>
+      </c>
+      <c r="N43">
+        <v>22</v>
+      </c>
+      <c r="O43">
+        <v>25</v>
+      </c>
+      <c r="P43">
+        <v>25</v>
+      </c>
       <c r="T43">
         <f t="shared" si="0"/>
-        <v>88</v>
+        <v>245</v>
       </c>
       <c r="U43" s="1">
         <f t="shared" si="1"/>
-        <v>0.4631578947368421</v>
+        <v>1.0208333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/Work Tracking/Grades.xlsx
+++ b/Work Tracking/Grades.xlsx
@@ -590,7 +590,7 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q30" sqref="Q30"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -792,16 +792,34 @@
       <c r="H4">
         <v>10</v>
       </c>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>20</v>
+      </c>
       <c r="K4">
         <v>9</v>
       </c>
+      <c r="L4">
+        <v>22</v>
+      </c>
+      <c r="O4">
+        <v>25</v>
+      </c>
+      <c r="P4">
+        <v>10</v>
+      </c>
+      <c r="Q4">
+        <v>7</v>
+      </c>
       <c r="T4">
         <f t="shared" si="0"/>
-        <v>116</v>
+        <v>220</v>
       </c>
       <c r="U4" s="1">
         <f>T4/T$2</f>
-        <v>0.48333333333333334</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.35">
@@ -838,16 +856,19 @@
       <c r="N5">
         <v>22</v>
       </c>
+      <c r="O5">
+        <v>25</v>
+      </c>
       <c r="P5">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="T5">
         <f t="shared" si="0"/>
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="U5" s="1">
         <f t="shared" ref="U5:U43" si="1">T5/T$2</f>
-        <v>0.77500000000000002</v>
+        <v>0.9291666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.35">
@@ -909,13 +930,22 @@
       <c r="N7">
         <v>22</v>
       </c>
+      <c r="O7">
+        <v>25</v>
+      </c>
+      <c r="P7">
+        <v>25</v>
+      </c>
+      <c r="Q7">
+        <v>3</v>
+      </c>
       <c r="T7">
         <f t="shared" si="0"/>
-        <v>200</v>
+        <v>253</v>
       </c>
       <c r="U7" s="1">
         <f t="shared" si="1"/>
-        <v>0.83333333333333337</v>
+        <v>1.0541666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.35">
@@ -925,13 +955,52 @@
       <c r="B8" t="s">
         <v>5</v>
       </c>
+      <c r="D8">
+        <v>41</v>
+      </c>
+      <c r="E8">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>24</v>
+      </c>
+      <c r="G8">
+        <v>13</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
+        <v>20</v>
+      </c>
+      <c r="J8">
+        <v>10</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>19</v>
+      </c>
+      <c r="N8">
+        <v>22</v>
+      </c>
+      <c r="O8">
+        <v>25</v>
+      </c>
+      <c r="P8">
+        <v>25</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
       <c r="T8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="U8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.99583333333333335</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.35">
@@ -974,13 +1043,16 @@
       <c r="P9">
         <v>25</v>
       </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="U9" s="1">
         <f t="shared" si="1"/>
-        <v>0.9291666666666667</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
@@ -991,7 +1063,7 @@
         <v>7</v>
       </c>
       <c r="D10">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E10">
         <v>18</v>
@@ -1002,6 +1074,9 @@
       <c r="G10">
         <v>13</v>
       </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
       <c r="I10">
         <v>20</v>
       </c>
@@ -1017,16 +1092,22 @@
       <c r="N10">
         <v>22</v>
       </c>
+      <c r="O10">
+        <v>25</v>
+      </c>
       <c r="P10">
         <v>25</v>
       </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
       <c r="T10">
         <f t="shared" si="0"/>
-        <v>187</v>
+        <v>234</v>
       </c>
       <c r="U10" s="1">
         <f t="shared" si="1"/>
-        <v>0.77916666666666667</v>
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="11" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -1039,6 +1120,9 @@
       <c r="D11" s="3">
         <v>33</v>
       </c>
+      <c r="E11" s="3">
+        <v>18</v>
+      </c>
       <c r="F11" s="3">
         <v>22</v>
       </c>
@@ -1057,17 +1141,29 @@
       <c r="K11" s="3">
         <v>4</v>
       </c>
+      <c r="L11" s="3">
+        <v>17</v>
+      </c>
       <c r="M11" s="5"/>
       <c r="N11" s="3">
         <v>22</v>
       </c>
+      <c r="O11" s="3">
+        <v>25</v>
+      </c>
+      <c r="P11" s="3">
+        <v>25</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>7</v>
+      </c>
       <c r="T11" s="3">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>236</v>
       </c>
       <c r="U11" s="4">
         <f t="shared" si="1"/>
-        <v>0.6</v>
+        <v>0.98333333333333328</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.35">
@@ -1113,13 +1209,16 @@
       <c r="P12">
         <v>25</v>
       </c>
+      <c r="Q12" s="3">
+        <v>7</v>
+      </c>
       <c r="T12">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="U12" s="1">
         <f t="shared" si="1"/>
-        <v>1.0208333333333333</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.35">
@@ -1150,16 +1249,22 @@
       <c r="J13">
         <v>20</v>
       </c>
+      <c r="L13">
+        <v>22</v>
+      </c>
       <c r="N13">
         <v>22</v>
       </c>
+      <c r="Q13">
+        <v>7</v>
+      </c>
       <c r="T13">
         <f t="shared" si="0"/>
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="U13" s="1">
         <f t="shared" si="1"/>
-        <v>0.70416666666666672</v>
+        <v>0.82499999999999996</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.35">
@@ -1187,16 +1292,34 @@
       <c r="I14">
         <v>20</v>
       </c>
+      <c r="J14">
+        <v>20</v>
+      </c>
       <c r="K14">
         <v>4</v>
       </c>
+      <c r="L14">
+        <v>22</v>
+      </c>
+      <c r="N14">
+        <v>22</v>
+      </c>
+      <c r="O14">
+        <v>25</v>
+      </c>
+      <c r="P14">
+        <v>25</v>
+      </c>
+      <c r="Q14">
+        <v>7</v>
+      </c>
       <c r="T14">
         <f t="shared" si="0"/>
-        <v>131</v>
+        <v>252</v>
       </c>
       <c r="U14" s="1">
         <f t="shared" si="1"/>
-        <v>0.54583333333333328</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.35">
@@ -1230,13 +1353,19 @@
       <c r="K15">
         <v>4</v>
       </c>
+      <c r="L15">
+        <v>22</v>
+      </c>
+      <c r="N15">
+        <v>22</v>
+      </c>
       <c r="T15">
         <f t="shared" si="0"/>
-        <v>130</v>
+        <v>174</v>
       </c>
       <c r="U15" s="1">
         <f t="shared" si="1"/>
-        <v>0.54166666666666663</v>
+        <v>0.72499999999999998</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
@@ -1255,13 +1384,19 @@
       <c r="F16">
         <v>24</v>
       </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16">
+        <v>22</v>
+      </c>
       <c r="T16">
         <f t="shared" si="0"/>
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="U16" s="1">
         <f t="shared" si="1"/>
-        <v>0.32500000000000001</v>
+        <v>0.43333333333333335</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.35">
@@ -1271,13 +1406,46 @@
       <c r="B17" t="s">
         <v>14</v>
       </c>
+      <c r="D17">
+        <v>41</v>
+      </c>
+      <c r="E17">
+        <v>19</v>
+      </c>
+      <c r="F17">
+        <v>24</v>
+      </c>
+      <c r="G17">
+        <v>13</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
+        <v>20</v>
+      </c>
+      <c r="J17">
+        <v>20</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>22</v>
+      </c>
+      <c r="N17">
+        <v>22</v>
+      </c>
+      <c r="P17">
+        <v>25</v>
+      </c>
       <c r="T17">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>220</v>
       </c>
       <c r="U17" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.91666666666666663</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.35">
@@ -1305,6 +1473,9 @@
       <c r="I18">
         <v>20</v>
       </c>
+      <c r="J18">
+        <v>10</v>
+      </c>
       <c r="K18">
         <v>9</v>
       </c>
@@ -1314,16 +1485,22 @@
       <c r="N18">
         <v>22</v>
       </c>
+      <c r="O18">
+        <v>25</v>
+      </c>
       <c r="P18">
         <v>25</v>
       </c>
+      <c r="Q18">
+        <v>7</v>
+      </c>
       <c r="T18">
         <f t="shared" si="0"/>
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="U18" s="1">
         <f t="shared" si="1"/>
-        <v>0.85416666666666663</v>
+        <v>1.0291666666666666</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.35">
@@ -1351,19 +1528,34 @@
       <c r="I19">
         <v>20</v>
       </c>
+      <c r="J19">
+        <v>10</v>
+      </c>
       <c r="K19">
         <v>4</v>
       </c>
       <c r="L19">
         <v>15</v>
       </c>
+      <c r="N19">
+        <v>22</v>
+      </c>
+      <c r="O19">
+        <v>25</v>
+      </c>
+      <c r="P19">
+        <v>15</v>
+      </c>
+      <c r="Q19">
+        <v>7</v>
+      </c>
       <c r="T19">
         <f t="shared" si="0"/>
-        <v>145</v>
+        <v>224</v>
       </c>
       <c r="U19" s="1">
         <f t="shared" si="1"/>
-        <v>0.60416666666666663</v>
+        <v>0.93333333333333335</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.35">
@@ -1388,13 +1580,19 @@
       <c r="H20">
         <v>10</v>
       </c>
+      <c r="I20">
+        <v>20</v>
+      </c>
+      <c r="J20">
+        <v>20</v>
+      </c>
       <c r="T20">
         <f t="shared" si="0"/>
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="U20" s="1">
         <f t="shared" si="1"/>
-        <v>0.44166666666666665</v>
+        <v>0.60833333333333328</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.35">
@@ -1420,13 +1618,52 @@
       <c r="B22" t="s">
         <v>19</v>
       </c>
+      <c r="D22">
+        <v>41</v>
+      </c>
+      <c r="E22">
+        <v>19</v>
+      </c>
+      <c r="F22">
+        <v>24</v>
+      </c>
+      <c r="G22">
+        <v>13</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
+        <v>20</v>
+      </c>
+      <c r="J22">
+        <v>20</v>
+      </c>
+      <c r="K22">
+        <v>4</v>
+      </c>
+      <c r="L22">
+        <v>22</v>
+      </c>
+      <c r="N22">
+        <v>22</v>
+      </c>
+      <c r="O22">
+        <v>25</v>
+      </c>
+      <c r="P22">
+        <v>25</v>
+      </c>
+      <c r="Q22">
+        <v>7</v>
+      </c>
       <c r="T22">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="U22" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.35">
@@ -1451,13 +1688,28 @@
       <c r="H23">
         <v>10</v>
       </c>
+      <c r="J23">
+        <v>20</v>
+      </c>
+      <c r="L23">
+        <v>22</v>
+      </c>
+      <c r="N23">
+        <v>22</v>
+      </c>
+      <c r="O23">
+        <v>25</v>
+      </c>
+      <c r="P23">
+        <v>25</v>
+      </c>
       <c r="T23">
         <f t="shared" si="0"/>
-        <v>102</v>
+        <v>216</v>
       </c>
       <c r="U23" s="1">
         <f t="shared" si="1"/>
-        <v>0.42499999999999999</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.35">
@@ -1491,16 +1743,28 @@
       <c r="K24">
         <v>9</v>
       </c>
+      <c r="L24">
+        <v>22</v>
+      </c>
       <c r="N24">
         <v>22</v>
       </c>
+      <c r="O24">
+        <v>25</v>
+      </c>
+      <c r="P24">
+        <v>25</v>
+      </c>
+      <c r="Q24">
+        <v>7</v>
+      </c>
       <c r="T24">
         <f t="shared" si="0"/>
-        <v>173</v>
+        <v>252</v>
       </c>
       <c r="U24" s="1">
         <f t="shared" si="1"/>
-        <v>0.72083333333333333</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.35">
@@ -1528,22 +1792,31 @@
       <c r="I25">
         <v>20</v>
       </c>
+      <c r="J25">
+        <v>20</v>
+      </c>
       <c r="K25">
         <v>9</v>
       </c>
+      <c r="L25">
+        <v>22</v>
+      </c>
       <c r="N25">
         <v>22</v>
       </c>
       <c r="O25">
         <v>25</v>
       </c>
+      <c r="P25">
+        <v>25</v>
+      </c>
       <c r="T25">
         <f t="shared" si="0"/>
-        <v>182</v>
+        <v>249</v>
       </c>
       <c r="U25" s="1">
         <f t="shared" si="1"/>
-        <v>0.7583333333333333</v>
+        <v>1.0375000000000001</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.35">
@@ -1553,13 +1826,31 @@
       <c r="B26" t="s">
         <v>23</v>
       </c>
+      <c r="D26">
+        <v>36</v>
+      </c>
+      <c r="E26">
+        <v>19</v>
+      </c>
+      <c r="F26">
+        <v>24</v>
+      </c>
+      <c r="G26">
+        <v>13</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="K26">
+        <v>4</v>
+      </c>
       <c r="T26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="U26" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.44166666666666665</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.35">
@@ -1569,13 +1860,49 @@
       <c r="B27" t="s">
         <v>24</v>
       </c>
+      <c r="D27">
+        <v>41</v>
+      </c>
+      <c r="E27">
+        <v>19</v>
+      </c>
+      <c r="F27">
+        <v>24</v>
+      </c>
+      <c r="G27">
+        <v>13</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27">
+        <v>20</v>
+      </c>
+      <c r="J27">
+        <v>20</v>
+      </c>
+      <c r="K27">
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <v>22</v>
+      </c>
+      <c r="O27">
+        <v>25</v>
+      </c>
+      <c r="P27">
+        <v>25</v>
+      </c>
+      <c r="Q27">
+        <v>7</v>
+      </c>
       <c r="T27">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="U27" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.95833333333333337</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.35">
@@ -1655,6 +1982,12 @@
       <c r="I29">
         <v>20</v>
       </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29">
+        <v>22</v>
+      </c>
       <c r="N29">
         <v>22</v>
       </c>
@@ -1664,13 +1997,16 @@
       <c r="P29">
         <v>25</v>
       </c>
+      <c r="Q29">
+        <v>7</v>
+      </c>
       <c r="T29">
         <f t="shared" si="0"/>
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="U29" s="1">
         <f t="shared" si="1"/>
-        <v>0.8</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.35">
@@ -1716,13 +2052,16 @@
       <c r="P30">
         <v>25</v>
       </c>
+      <c r="Q30">
+        <v>7</v>
+      </c>
       <c r="T30">
         <f t="shared" si="0"/>
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="U30" s="1">
         <f t="shared" si="1"/>
-        <v>1.0166666666666666</v>
+        <v>1.0458333333333334</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.35">
@@ -1732,13 +2071,34 @@
       <c r="B31" t="s">
         <v>28</v>
       </c>
+      <c r="D31">
+        <v>41</v>
+      </c>
+      <c r="E31">
+        <v>19</v>
+      </c>
+      <c r="F31">
+        <v>24</v>
+      </c>
+      <c r="G31">
+        <v>13</v>
+      </c>
+      <c r="H31">
+        <v>10</v>
+      </c>
+      <c r="I31">
+        <v>20</v>
+      </c>
+      <c r="J31">
+        <v>20</v>
+      </c>
       <c r="T31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="U31" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.61250000000000004</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.35">
@@ -1748,13 +2108,34 @@
       <c r="B32" t="s">
         <v>29</v>
       </c>
+      <c r="D32">
+        <v>41</v>
+      </c>
+      <c r="E32">
+        <v>19</v>
+      </c>
+      <c r="F32">
+        <v>24</v>
+      </c>
+      <c r="G32">
+        <v>13</v>
+      </c>
+      <c r="H32">
+        <v>10</v>
+      </c>
+      <c r="J32">
+        <v>20</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
       <c r="T32">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="U32" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.54583333333333328</v>
       </c>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.35">
@@ -1764,13 +2145,31 @@
       <c r="B33" t="s">
         <v>30</v>
       </c>
+      <c r="D33">
+        <v>41</v>
+      </c>
+      <c r="E33">
+        <v>19</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="N33">
+        <v>22</v>
+      </c>
+      <c r="O33">
+        <v>25</v>
+      </c>
+      <c r="Q33">
+        <v>7</v>
+      </c>
       <c r="T33">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="U33" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.49166666666666664</v>
       </c>
     </row>
     <row r="34" spans="1:21" x14ac:dyDescent="0.35">
@@ -1780,13 +2179,52 @@
       <c r="B34" t="s">
         <v>31</v>
       </c>
+      <c r="D34">
+        <v>35</v>
+      </c>
+      <c r="E34">
+        <v>19</v>
+      </c>
+      <c r="F34">
+        <v>23</v>
+      </c>
+      <c r="G34">
+        <v>13</v>
+      </c>
+      <c r="H34">
+        <v>10</v>
+      </c>
+      <c r="I34">
+        <v>20</v>
+      </c>
+      <c r="J34">
+        <v>20</v>
+      </c>
+      <c r="K34">
+        <v>4</v>
+      </c>
+      <c r="L34">
+        <v>11</v>
+      </c>
+      <c r="N34">
+        <v>22</v>
+      </c>
+      <c r="O34">
+        <v>25</v>
+      </c>
+      <c r="P34">
+        <v>25</v>
+      </c>
+      <c r="Q34">
+        <v>7</v>
+      </c>
       <c r="T34">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>234</v>
       </c>
       <c r="U34" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.97499999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.35">
@@ -1796,13 +2234,28 @@
       <c r="B35" t="s">
         <v>32</v>
       </c>
+      <c r="D35">
+        <v>31</v>
+      </c>
+      <c r="E35">
+        <v>19</v>
+      </c>
+      <c r="F35">
+        <v>23</v>
+      </c>
+      <c r="G35">
+        <v>13</v>
+      </c>
+      <c r="L35">
+        <v>20</v>
+      </c>
       <c r="T35">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="U35" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.44166666666666665</v>
       </c>
     </row>
     <row r="36" spans="1:21" x14ac:dyDescent="0.35">
@@ -1840,13 +2293,37 @@
       <c r="G37">
         <v>13</v>
       </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
+      <c r="I37">
+        <v>20</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>19</v>
+      </c>
+      <c r="N37">
+        <v>22</v>
+      </c>
+      <c r="O37">
+        <v>25</v>
+      </c>
+      <c r="P37">
+        <v>25</v>
+      </c>
+      <c r="Q37">
+        <v>7</v>
+      </c>
       <c r="T37">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>227</v>
       </c>
       <c r="U37" s="1">
         <f t="shared" si="1"/>
-        <v>0.40416666666666667</v>
+        <v>0.9458333333333333</v>
       </c>
     </row>
     <row r="38" spans="1:21" x14ac:dyDescent="0.35">
@@ -1856,9 +2333,15 @@
       <c r="B38" t="s">
         <v>35</v>
       </c>
+      <c r="D38">
+        <v>41</v>
+      </c>
       <c r="E38">
         <v>19</v>
       </c>
+      <c r="F38">
+        <v>24</v>
+      </c>
       <c r="G38">
         <v>13</v>
       </c>
@@ -1874,13 +2357,22 @@
       <c r="N38">
         <v>22</v>
       </c>
+      <c r="O38">
+        <v>25</v>
+      </c>
+      <c r="P38">
+        <v>25</v>
+      </c>
+      <c r="Q38">
+        <v>7</v>
+      </c>
       <c r="T38">
         <f t="shared" si="0"/>
-        <v>106</v>
+        <v>228</v>
       </c>
       <c r="U38" s="1">
         <f t="shared" si="1"/>
-        <v>0.44166666666666665</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="39" spans="1:21" x14ac:dyDescent="0.35">
@@ -1911,13 +2403,19 @@
       <c r="J39">
         <v>20</v>
       </c>
+      <c r="K39">
+        <v>4</v>
+      </c>
+      <c r="L39">
+        <v>22</v>
+      </c>
       <c r="T39">
         <f t="shared" si="0"/>
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="U39" s="1">
         <f t="shared" si="1"/>
-        <v>0.60833333333333328</v>
+        <v>0.71666666666666667</v>
       </c>
     </row>
     <row r="40" spans="1:21" x14ac:dyDescent="0.35">
@@ -1943,13 +2441,40 @@
       <c r="B41" t="s">
         <v>38</v>
       </c>
+      <c r="D41">
+        <v>41</v>
+      </c>
+      <c r="E41">
+        <v>19</v>
+      </c>
+      <c r="F41">
+        <v>22</v>
+      </c>
+      <c r="G41">
+        <v>13</v>
+      </c>
+      <c r="H41">
+        <v>10</v>
+      </c>
+      <c r="J41">
+        <v>10</v>
+      </c>
+      <c r="L41">
+        <v>15</v>
+      </c>
+      <c r="N41">
+        <v>22</v>
+      </c>
+      <c r="Q41">
+        <v>7</v>
+      </c>
       <c r="T41">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="U41" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.66249999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:21" x14ac:dyDescent="0.35">
@@ -1959,13 +2484,37 @@
       <c r="B42" t="s">
         <v>39</v>
       </c>
+      <c r="D42">
+        <v>41</v>
+      </c>
+      <c r="E42">
+        <v>19</v>
+      </c>
+      <c r="F42">
+        <v>24</v>
+      </c>
+      <c r="G42">
+        <v>13</v>
+      </c>
+      <c r="H42">
+        <v>10</v>
+      </c>
+      <c r="I42">
+        <v>20</v>
+      </c>
+      <c r="L42">
+        <v>6</v>
+      </c>
+      <c r="Q42">
+        <v>7</v>
+      </c>
       <c r="T42">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="U42" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.58333333333333337</v>
       </c>
     </row>
     <row r="43" spans="1:21" x14ac:dyDescent="0.35">

--- a/Work Tracking/Grades.xlsx
+++ b/Work Tracking/Grades.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Norco College\CIS 11 - Assembly Programming\CIS---11-Assembly-Programming\Work Tracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Norco\CIS---11-Assembly-Programming\Work Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1FAB9C97-475F-46E7-BC94-D251443F28B2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -206,7 +207,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -586,26 +587,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="1.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="13" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>41</v>
       </c>
@@ -661,7 +662,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C2" s="2">
         <v>0</v>
       </c>
@@ -718,7 +719,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2510759</v>
       </c>
@@ -770,7 +771,7 @@
         <v>0.95416666666666672</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2513919</v>
       </c>
@@ -822,7 +823,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2654571</v>
       </c>
@@ -871,7 +872,7 @@
         <v>0.9291666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2523479</v>
       </c>
@@ -893,7 +894,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2249735</v>
       </c>
@@ -948,7 +949,7 @@
         <v>1.0541666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2677196</v>
       </c>
@@ -1003,7 +1004,7 @@
         <v>0.99583333333333335</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2515154</v>
       </c>
@@ -1037,6 +1038,9 @@
       <c r="L9">
         <v>22</v>
       </c>
+      <c r="N9">
+        <v>22</v>
+      </c>
       <c r="O9">
         <v>25</v>
       </c>
@@ -1048,14 +1052,14 @@
       </c>
       <c r="T9">
         <f t="shared" si="0"/>
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="U9" s="1">
         <f t="shared" si="1"/>
-        <v>0.95833333333333337</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2656921</v>
       </c>
@@ -1110,7 +1114,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>2492435</v>
       </c>
@@ -1166,7 +1170,7 @@
         <v>0.98333333333333328</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2497741</v>
       </c>
@@ -1221,7 +1225,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2413081</v>
       </c>
@@ -1267,7 +1271,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2479480</v>
       </c>
@@ -1322,7 +1326,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2456165</v>
       </c>
@@ -1368,7 +1372,7 @@
         <v>0.72499999999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2574712</v>
       </c>
@@ -1399,7 +1403,7 @@
         <v>0.43333333333333335</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2657949</v>
       </c>
@@ -1448,7 +1452,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2608544</v>
       </c>
@@ -1503,7 +1507,7 @@
         <v>1.0291666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2535593</v>
       </c>
@@ -1558,7 +1562,7 @@
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2308331</v>
       </c>
@@ -1586,16 +1590,34 @@
       <c r="J20">
         <v>20</v>
       </c>
+      <c r="K20">
+        <v>4</v>
+      </c>
+      <c r="L20">
+        <v>22</v>
+      </c>
+      <c r="N20">
+        <v>22</v>
+      </c>
+      <c r="O20">
+        <v>25</v>
+      </c>
+      <c r="P20">
+        <v>25</v>
+      </c>
+      <c r="Q20">
+        <v>7</v>
+      </c>
       <c r="T20">
         <f t="shared" si="0"/>
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="U20" s="1">
         <f t="shared" si="1"/>
-        <v>0.60833333333333328</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
+        <v>1.0458333333333334</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2436031</v>
       </c>
@@ -1611,7 +1633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2670943</v>
       </c>
@@ -1666,7 +1688,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2301160</v>
       </c>
@@ -1712,7 +1734,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2398141</v>
       </c>
@@ -1767,7 +1789,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2575265</v>
       </c>
@@ -1819,7 +1841,7 @@
         <v>1.0375000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2638532</v>
       </c>
@@ -1853,7 +1875,7 @@
         <v>0.44166666666666665</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2307414</v>
       </c>
@@ -1905,7 +1927,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2600898</v>
       </c>
@@ -1957,7 +1979,7 @@
         <v>1.0208333333333333</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2545354</v>
       </c>
@@ -2009,7 +2031,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2487675</v>
       </c>
@@ -2064,7 +2086,7 @@
         <v>1.0458333333333334</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2597077</v>
       </c>
@@ -2101,7 +2123,7 @@
         <v>0.61250000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2575449</v>
       </c>
@@ -2138,7 +2160,7 @@
         <v>0.54583333333333328</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2184540</v>
       </c>
@@ -2160,19 +2182,22 @@
       <c r="O33">
         <v>25</v>
       </c>
+      <c r="P33">
+        <v>25</v>
+      </c>
       <c r="Q33">
         <v>7</v>
       </c>
       <c r="T33">
         <f t="shared" si="0"/>
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="U33" s="1">
         <f t="shared" si="1"/>
-        <v>0.49166666666666664</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
+        <v>0.59583333333333333</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2595968</v>
       </c>
@@ -2227,7 +2252,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2497243</v>
       </c>
@@ -2258,7 +2283,7 @@
         <v>0.44166666666666665</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2425431</v>
       </c>
@@ -2274,7 +2299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2585430</v>
       </c>
@@ -2326,7 +2351,7 @@
         <v>0.9458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2627220</v>
       </c>
@@ -2375,7 +2400,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2531635</v>
       </c>
@@ -2418,7 +2443,7 @@
         <v>0.71666666666666667</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2610448</v>
       </c>
@@ -2434,7 +2459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2405706</v>
       </c>
@@ -2456,6 +2481,9 @@
       <c r="H41">
         <v>10</v>
       </c>
+      <c r="I41">
+        <v>20</v>
+      </c>
       <c r="J41">
         <v>10</v>
       </c>
@@ -2470,14 +2498,14 @@
       </c>
       <c r="T41">
         <f t="shared" si="0"/>
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="U41" s="1">
         <f t="shared" si="1"/>
-        <v>0.66249999999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
+        <v>0.74583333333333335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2681493</v>
       </c>
@@ -2517,7 +2545,7 @@
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2669117</v>
       </c>

--- a/Work Tracking/Grades.xlsx
+++ b/Work Tracking/Grades.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Norco\CIS---11-Assembly-Programming\Work Tracking\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Norco College\CIS 11 - Assembly Programming\CIS---11-Assembly-Programming\Work Tracking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1FAB9C97-475F-46E7-BC94-D251443F28B2}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12470"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -207,7 +206,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -587,26 +586,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="U28" sqref="U28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="6.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="D1" t="s">
         <v>41</v>
       </c>
@@ -662,7 +661,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="C2" s="2">
         <v>0</v>
       </c>
@@ -719,7 +718,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2510759</v>
       </c>
@@ -771,7 +770,7 @@
         <v>0.95416666666666672</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2513919</v>
       </c>
@@ -823,7 +822,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>2654571</v>
       </c>
@@ -872,7 +871,7 @@
         <v>0.9291666666666667</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>2523479</v>
       </c>
@@ -894,7 +893,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2249735</v>
       </c>
@@ -949,7 +948,7 @@
         <v>1.0541666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2677196</v>
       </c>
@@ -1004,7 +1003,7 @@
         <v>0.99583333333333335</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>2515154</v>
       </c>
@@ -1059,7 +1058,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>2656921</v>
       </c>
@@ -1114,7 +1113,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>2492435</v>
       </c>
@@ -1170,7 +1169,7 @@
         <v>0.98333333333333328</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>2497741</v>
       </c>
@@ -1225,7 +1224,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>2413081</v>
       </c>
@@ -1271,7 +1270,7 @@
         <v>0.82499999999999996</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>2479480</v>
       </c>
@@ -1326,7 +1325,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2456165</v>
       </c>
@@ -1363,16 +1362,25 @@
       <c r="N15">
         <v>22</v>
       </c>
+      <c r="O15">
+        <v>25</v>
+      </c>
+      <c r="P15">
+        <v>25</v>
+      </c>
+      <c r="Q15">
+        <v>7</v>
+      </c>
       <c r="T15">
         <f t="shared" si="0"/>
-        <v>174</v>
+        <v>231</v>
       </c>
       <c r="U15" s="1">
         <f t="shared" si="1"/>
-        <v>0.72499999999999998</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.96250000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>2574712</v>
       </c>
@@ -1388,22 +1396,29 @@
       <c r="F16">
         <v>24</v>
       </c>
+      <c r="G16">
+        <v>13</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
       <c r="K16">
         <v>4</v>
       </c>
       <c r="L16">
         <v>22</v>
       </c>
+      <c r="M16"/>
       <c r="T16">
         <f t="shared" si="0"/>
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="U16" s="1">
         <f t="shared" si="1"/>
-        <v>0.43333333333333335</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.52916666666666667</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>2657949</v>
       </c>
@@ -1452,7 +1467,7 @@
         <v>0.91666666666666663</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>2608544</v>
       </c>
@@ -1507,7 +1522,7 @@
         <v>1.0291666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2535593</v>
       </c>
@@ -1562,7 +1577,7 @@
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>2308331</v>
       </c>
@@ -1617,7 +1632,7 @@
         <v>1.0458333333333334</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>2436031</v>
       </c>
@@ -1633,7 +1648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>2670943</v>
       </c>
@@ -1688,7 +1703,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2301160</v>
       </c>
@@ -1734,7 +1749,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>2398141</v>
       </c>
@@ -1789,7 +1804,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>2575265</v>
       </c>
@@ -1841,7 +1856,7 @@
         <v>1.0375000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>2638532</v>
       </c>
@@ -1875,7 +1890,7 @@
         <v>0.44166666666666665</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2307414</v>
       </c>
@@ -1927,7 +1942,7 @@
         <v>0.95833333333333337</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>2600898</v>
       </c>
@@ -1979,7 +1994,7 @@
         <v>1.0208333333333333</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>2545354</v>
       </c>
@@ -2031,7 +2046,7 @@
         <v>0.9375</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>2487675</v>
       </c>
@@ -2086,7 +2101,7 @@
         <v>1.0458333333333334</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2597077</v>
       </c>
@@ -2123,7 +2138,7 @@
         <v>0.61250000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>2575449</v>
       </c>
@@ -2151,16 +2166,32 @@
       <c r="K32">
         <v>4</v>
       </c>
+      <c r="L32">
+        <v>22</v>
+      </c>
+      <c r="M32"/>
+      <c r="N32">
+        <v>22</v>
+      </c>
+      <c r="O32">
+        <v>25</v>
+      </c>
+      <c r="P32">
+        <v>25</v>
+      </c>
+      <c r="Q32">
+        <v>7</v>
+      </c>
       <c r="T32">
         <f t="shared" si="0"/>
-        <v>131</v>
-      </c>
-      <c r="U32" s="1">
-        <f t="shared" si="1"/>
-        <v>0.54583333333333328</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+        <v>232</v>
+      </c>
+      <c r="U32">
+        <f t="shared" si="1"/>
+        <v>0.96666666666666667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>2184540</v>
       </c>
@@ -2197,7 +2228,7 @@
         <v>0.59583333333333333</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>2595968</v>
       </c>
@@ -2252,7 +2283,7 @@
         <v>0.97499999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2497243</v>
       </c>
@@ -2283,7 +2314,7 @@
         <v>0.44166666666666665</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>2425431</v>
       </c>
@@ -2299,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2585430</v>
       </c>
@@ -2351,7 +2382,7 @@
         <v>0.9458333333333333</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>2627220</v>
       </c>
@@ -2400,7 +2431,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2531635</v>
       </c>
@@ -2434,16 +2465,22 @@
       <c r="L39">
         <v>22</v>
       </c>
+      <c r="N39">
+        <v>22</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
       <c r="T39">
         <f t="shared" si="0"/>
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="U39" s="1">
         <f t="shared" si="1"/>
-        <v>0.71666666666666667</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.80833333333333335</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>2610448</v>
       </c>
@@ -2459,7 +2496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>2405706</v>
       </c>
@@ -2505,7 +2542,7 @@
         <v>0.74583333333333335</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>2681493</v>
       </c>
@@ -2530,22 +2567,34 @@
       <c r="I42">
         <v>20</v>
       </c>
+      <c r="J42">
+        <v>20</v>
+      </c>
       <c r="L42">
         <v>6</v>
       </c>
+      <c r="N42">
+        <v>20</v>
+      </c>
+      <c r="O42">
+        <v>12</v>
+      </c>
+      <c r="P42">
+        <v>25</v>
+      </c>
       <c r="Q42">
         <v>7</v>
       </c>
       <c r="T42">
         <f t="shared" si="0"/>
-        <v>140</v>
+        <v>217</v>
       </c>
       <c r="U42" s="1">
         <f t="shared" si="1"/>
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+        <v>0.90416666666666667</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2669117</v>
       </c>
